--- a/src/FlaskTpp/App/email_yandex.xlsx
+++ b/src/FlaskTpp/App/email_yandex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitcode\flaskDemo\src\FlaskTpp\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456725F3-DCC9-44D1-AC46-82DD2E10F23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A7248-A899-4D41-BEAC-79C1221B4546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1548" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,9 +2400,6 @@
     <t>futureX-8@outlook.com</t>
   </si>
   <si>
-    <t>futureX-9@outlook.com</t>
-  </si>
-  <si>
     <t>futureX-10@outlook.com</t>
   </si>
   <si>
@@ -3150,13 +3147,27 @@
   <si>
     <t>futureX-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>utureX-9@yandex.com</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3208,6 +3219,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3269,7 +3286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3280,8 +3297,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3588,7 +3603,7 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3758,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3769,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -3783,38 +3798,36 @@
       <c r="H6" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3827,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -3841,6 +3854,9 @@
       <c r="H8" s="2" t="s">
         <v>787</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3866,6 +3882,9 @@
       </c>
       <c r="H9" s="2" t="s">
         <v>788</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3891,7 +3910,10 @@
         <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>789</v>
+        <v>1038</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,7 +3939,10 @@
         <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3943,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3969,7 +3994,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3995,7 +4020,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4021,7 +4046,7 @@
         <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4047,7 +4072,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,7 +4098,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4124,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4125,7 +4150,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,7 +4176,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4177,7 +4202,7 @@
         <v>65</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4228,7 @@
         <v>68</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,7 +4254,7 @@
         <v>71</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4255,7 +4280,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4281,7 +4306,7 @@
         <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4307,7 +4332,7 @@
         <v>80</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,7 +4358,7 @@
         <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4359,7 +4384,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4385,7 +4410,7 @@
         <v>89</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,7 +4436,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4437,7 +4462,7 @@
         <v>95</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4463,7 +4488,7 @@
         <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,7 +4514,7 @@
         <v>101</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,7 +4540,7 @@
         <v>104</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,7 +4566,7 @@
         <v>107</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,7 +4592,7 @@
         <v>110</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,7 +4618,7 @@
         <v>113</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4619,7 +4644,7 @@
         <v>116</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4645,7 +4670,7 @@
         <v>119</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,7 +4696,7 @@
         <v>122</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,7 +4722,7 @@
         <v>125</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,7 +4748,7 @@
         <v>128</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4749,7 +4774,7 @@
         <v>131</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,7 +4800,7 @@
         <v>134</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4801,7 +4826,7 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4827,7 +4852,7 @@
         <v>140</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,7 +4878,7 @@
         <v>143</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4879,7 +4904,7 @@
         <v>146</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4905,7 +4930,7 @@
         <v>149</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,7 +4956,7 @@
         <v>152</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,7 +4982,7 @@
         <v>155</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,7 +5008,7 @@
         <v>158</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5009,7 +5034,7 @@
         <v>161</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5035,7 +5060,7 @@
         <v>164</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,7 +5086,7 @@
         <v>167</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5087,7 +5112,7 @@
         <v>170</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5113,7 +5138,7 @@
         <v>173</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,7 +5164,7 @@
         <v>176</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,7 +5190,7 @@
         <v>179</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5191,7 +5216,7 @@
         <v>182</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5242,7 @@
         <v>185</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5243,7 +5268,7 @@
         <v>188</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5269,7 +5294,7 @@
         <v>191</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,7 +5320,7 @@
         <v>194</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,7 +5346,7 @@
         <v>197</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,7 +5372,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5373,7 +5398,7 @@
         <v>203</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5399,7 +5424,7 @@
         <v>206</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5425,7 +5450,7 @@
         <v>209</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5451,7 +5476,7 @@
         <v>212</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5477,7 +5502,7 @@
         <v>215</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5503,7 +5528,7 @@
         <v>218</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5529,7 +5554,7 @@
         <v>221</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5555,7 +5580,7 @@
         <v>224</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5581,7 +5606,7 @@
         <v>227</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,7 +5632,7 @@
         <v>230</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5633,7 +5658,7 @@
         <v>233</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,7 +5684,7 @@
         <v>236</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,7 +5710,7 @@
         <v>239</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5711,7 +5736,7 @@
         <v>242</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5737,7 +5762,7 @@
         <v>245</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,7 +5788,7 @@
         <v>248</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5789,7 +5814,7 @@
         <v>251</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5815,7 +5840,7 @@
         <v>254</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5841,7 +5866,7 @@
         <v>257</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5867,7 +5892,7 @@
         <v>260</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5893,7 +5918,7 @@
         <v>263</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5919,7 +5944,7 @@
         <v>266</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5945,7 +5970,7 @@
         <v>269</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5971,7 +5996,7 @@
         <v>272</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,7 +6022,7 @@
         <v>275</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6023,7 +6048,7 @@
         <v>278</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6049,7 +6074,7 @@
         <v>281</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6075,7 +6100,7 @@
         <v>284</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6101,7 +6126,7 @@
         <v>287</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6127,7 +6152,7 @@
         <v>290</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6153,7 +6178,7 @@
         <v>293</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6179,7 +6204,7 @@
         <v>296</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,7 +6230,7 @@
         <v>299</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6231,7 +6256,7 @@
         <v>302</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6257,7 +6282,7 @@
         <v>305</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6283,7 +6308,7 @@
         <v>308</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6309,7 +6334,7 @@
         <v>311</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6335,7 +6360,7 @@
         <v>314</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6361,7 +6386,7 @@
         <v>317</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6387,7 +6412,7 @@
         <v>320</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6413,7 +6438,7 @@
         <v>323</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6439,7 +6464,7 @@
         <v>326</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6465,7 +6490,7 @@
         <v>329</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6491,7 +6516,7 @@
         <v>332</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6517,7 +6542,7 @@
         <v>335</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6543,7 +6568,7 @@
         <v>338</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,7 +6594,7 @@
         <v>341</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6595,7 +6620,7 @@
         <v>344</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6621,7 +6646,7 @@
         <v>347</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,7 +6672,7 @@
         <v>350</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6673,7 +6698,7 @@
         <v>353</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6699,7 +6724,7 @@
         <v>356</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6725,7 +6750,7 @@
         <v>359</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6751,7 +6776,7 @@
         <v>362</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6777,7 +6802,7 @@
         <v>365</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6803,7 +6828,7 @@
         <v>368</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6829,7 +6854,7 @@
         <v>371</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6855,7 +6880,7 @@
         <v>374</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6881,7 +6906,7 @@
         <v>377</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6907,7 +6932,7 @@
         <v>380</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6933,7 +6958,7 @@
         <v>383</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6959,7 +6984,7 @@
         <v>386</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6985,7 +7010,7 @@
         <v>389</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7011,7 +7036,7 @@
         <v>392</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7037,7 +7062,7 @@
         <v>395</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7063,7 +7088,7 @@
         <v>398</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7089,7 +7114,7 @@
         <v>401</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7115,7 +7140,7 @@
         <v>404</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7141,7 +7166,7 @@
         <v>407</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7167,7 +7192,7 @@
         <v>410</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7193,7 +7218,7 @@
         <v>413</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7219,7 +7244,7 @@
         <v>416</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7245,7 +7270,7 @@
         <v>419</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7271,7 +7296,7 @@
         <v>422</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,7 +7322,7 @@
         <v>425</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7323,7 +7348,7 @@
         <v>428</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,7 +7374,7 @@
         <v>431</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7375,7 +7400,7 @@
         <v>434</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7401,7 +7426,7 @@
         <v>437</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7427,7 +7452,7 @@
         <v>440</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7453,7 +7478,7 @@
         <v>443</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7479,7 +7504,7 @@
         <v>446</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7505,7 +7530,7 @@
         <v>449</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7531,7 +7556,7 @@
         <v>452</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7557,7 +7582,7 @@
         <v>455</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7583,7 +7608,7 @@
         <v>458</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7609,7 +7634,7 @@
         <v>461</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7635,7 +7660,7 @@
         <v>464</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7661,7 +7686,7 @@
         <v>467</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7687,7 +7712,7 @@
         <v>470</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7713,7 +7738,7 @@
         <v>473</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7739,7 +7764,7 @@
         <v>476</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7765,7 +7790,7 @@
         <v>479</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7791,7 +7816,7 @@
         <v>482</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7817,7 +7842,7 @@
         <v>485</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7843,7 +7868,7 @@
         <v>488</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7869,7 +7894,7 @@
         <v>491</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7895,7 +7920,7 @@
         <v>494</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7921,7 +7946,7 @@
         <v>497</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7947,7 +7972,7 @@
         <v>500</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7973,7 +7998,7 @@
         <v>503</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -7999,7 +8024,7 @@
         <v>506</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8025,7 +8050,7 @@
         <v>509</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8051,7 +8076,7 @@
         <v>512</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8077,7 +8102,7 @@
         <v>515</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8103,7 +8128,7 @@
         <v>518</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8129,7 +8154,7 @@
         <v>521</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8155,7 +8180,7 @@
         <v>524</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8181,7 +8206,7 @@
         <v>527</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8207,7 +8232,7 @@
         <v>530</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8233,7 +8258,7 @@
         <v>533</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8259,7 +8284,7 @@
         <v>536</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8285,7 +8310,7 @@
         <v>539</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8311,7 +8336,7 @@
         <v>542</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8337,7 +8362,7 @@
         <v>545</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8363,7 +8388,7 @@
         <v>548</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8389,7 +8414,7 @@
         <v>551</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8415,7 +8440,7 @@
         <v>554</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8441,7 +8466,7 @@
         <v>557</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8467,7 +8492,7 @@
         <v>560</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8493,7 +8518,7 @@
         <v>563</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8519,7 +8544,7 @@
         <v>566</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8545,7 +8570,7 @@
         <v>569</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8571,7 +8596,7 @@
         <v>572</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8597,7 +8622,7 @@
         <v>575</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8623,7 +8648,7 @@
         <v>578</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8649,7 +8674,7 @@
         <v>581</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8675,7 +8700,7 @@
         <v>584</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8701,7 +8726,7 @@
         <v>587</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8727,7 +8752,7 @@
         <v>590</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8753,7 +8778,7 @@
         <v>593</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -8779,7 +8804,7 @@
         <v>596</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8805,7 +8830,7 @@
         <v>599</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8831,7 +8856,7 @@
         <v>602</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,7 +8882,7 @@
         <v>605</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8883,7 +8908,7 @@
         <v>608</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8909,7 +8934,7 @@
         <v>611</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8935,7 +8960,7 @@
         <v>614</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8961,7 +8986,7 @@
         <v>617</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8987,7 +9012,7 @@
         <v>620</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -9013,7 +9038,7 @@
         <v>623</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9039,7 +9064,7 @@
         <v>626</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9065,7 +9090,7 @@
         <v>629</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9091,7 +9116,7 @@
         <v>632</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9117,7 +9142,7 @@
         <v>635</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9143,7 +9168,7 @@
         <v>638</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9169,7 +9194,7 @@
         <v>641</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9195,7 +9220,7 @@
         <v>644</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9221,7 +9246,7 @@
         <v>647</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9247,7 +9272,7 @@
         <v>650</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9273,7 +9298,7 @@
         <v>653</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9299,7 +9324,7 @@
         <v>656</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9325,7 +9350,7 @@
         <v>659</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9351,7 +9376,7 @@
         <v>662</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9377,7 +9402,7 @@
         <v>665</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9403,7 +9428,7 @@
         <v>668</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9429,7 +9454,7 @@
         <v>671</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9455,7 +9480,7 @@
         <v>674</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9481,7 +9506,7 @@
         <v>677</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9507,7 +9532,7 @@
         <v>680</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9533,7 +9558,7 @@
         <v>683</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9559,7 +9584,7 @@
         <v>686</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9585,7 +9610,7 @@
         <v>689</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9611,7 +9636,7 @@
         <v>692</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9637,7 +9662,7 @@
         <v>695</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9663,7 +9688,7 @@
         <v>698</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9689,7 +9714,7 @@
         <v>701</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9715,7 +9740,7 @@
         <v>704</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -9741,7 +9766,7 @@
         <v>707</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -9767,7 +9792,7 @@
         <v>710</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -9793,7 +9818,7 @@
         <v>713</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9819,7 +9844,7 @@
         <v>716</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -9845,7 +9870,7 @@
         <v>719</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -9871,7 +9896,7 @@
         <v>722</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -9897,7 +9922,7 @@
         <v>725</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -9923,7 +9948,7 @@
         <v>728</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9949,7 +9974,7 @@
         <v>731</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -9975,7 +10000,7 @@
         <v>734</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -10001,7 +10026,7 @@
         <v>737</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -10027,7 +10052,7 @@
         <v>740</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -10053,7 +10078,7 @@
         <v>743</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -10079,7 +10104,7 @@
         <v>746</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -10105,7 +10130,7 @@
         <v>749</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -10131,7 +10156,7 @@
         <v>752</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -10157,7 +10182,7 @@
         <v>755</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -10183,7 +10208,7 @@
         <v>758</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -10209,7 +10234,7 @@
         <v>761</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -10235,7 +10260,7 @@
         <v>764</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -10261,7 +10286,7 @@
         <v>767</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -10287,7 +10312,7 @@
         <v>770</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -10313,7 +10338,7 @@
         <v>773</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
